--- a/result/TrailATRf/summary_NIKKEI_M5_2017-2024_1.xlsx
+++ b/result/TrailATRf/summary_NIKKEI_M5_2017-2024_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,10 +537,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -559,49 +559,256 @@
         <v>2024</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
       </c>
       <c r="L2" t="n">
+        <v>-13369</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-7517</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5174</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-5852</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-668</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2120</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.1310398144569</v>
+      </c>
+      <c r="S2" t="n">
+        <v>156.6469931745371</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-21</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.3602628527251643</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45</v>
+      </c>
+      <c r="J3" t="n">
+        <v>150</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
         <v>-13907</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M3" t="n">
         <v>-8190</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N3" t="n">
         <v>8021</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O3" t="n">
         <v>-5717</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P3" t="n">
         <v>-517</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q3" t="n">
         <v>1918</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R3" t="n">
         <v>-0.7127540206956738</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S3" t="n">
         <v>123.3878905035268</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T3" t="n">
         <v>-18</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U3" t="n">
         <v>0.3753896022939783</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G4" t="n">
+        <v>45</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" t="n">
+        <v>350</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-20582</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-15680</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5092</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-4902</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-800</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1301</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.9626865671641791</v>
+      </c>
+      <c r="S4" t="n">
+        <v>159.8480492322991</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-15</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.4192851531814611</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G5" t="n">
+        <v>65</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>300</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-21805</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-13637</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5806</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-8168</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-433</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1698</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-1.406820530485704</v>
+      </c>
+      <c r="S5" t="n">
+        <v>148.6546703071169</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-15</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.3568722011712022</v>
       </c>
     </row>
   </sheetData>
